--- a/SuppXLS/Scen_Electricity_profile.xlsx
+++ b/SuppXLS/Scen_Electricity_profile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Oss\[SuppXLS]\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Oss\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB93BC10-86EB-48BD-929F-953D7CB4BED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E413B6-AD6A-4BC1-AE42-94AB019FC68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
-    <t>~TFM_ISN:</t>
-  </si>
-  <si>
     <t>CSet_CN</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>\I: Commodity Set: Commodity name</t>
+  </si>
+  <si>
+    <t>~TFM_INS:</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
   <dimension ref="C4:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,47 +601,47 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" t="s">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
       <c r="F15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>0.1</v>
@@ -649,13 +649,13 @@
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>0.1</v>
@@ -663,13 +663,13 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>0.1</v>
@@ -677,13 +677,13 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>0.1</v>
@@ -691,13 +691,13 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <v>0.15</v>
@@ -705,13 +705,13 @@
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>0.15</v>
@@ -719,13 +719,13 @@
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>0.15</v>
@@ -733,13 +733,13 @@
     </row>
     <row r="23" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
         <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
       </c>
       <c r="F23">
         <v>0.15</v>

--- a/SuppXLS/Scen_Electricity_profile.xlsx
+++ b/SuppXLS/Scen_Electricity_profile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Oss\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Gucwa\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E413B6-AD6A-4BC1-AE42-94AB019FC68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E990D0E8-7B65-4152-AA0E-6AADE4AEE87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
